--- a/test/validation/Scenarios/AnesthesiaMachineValidation.xlsx
+++ b/test/validation/Scenarios/AnesthesiaMachineValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2724B15-ADE7-47EC-8B71-FD82B7C3A777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="240" windowWidth="20235" windowHeight="11070" activeTab="1"/>
+    <workbookView xWindow="15855" yWindow="7740" windowWidth="32670" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -32,7 +38,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">VaporizerFailureVaried!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">VentilatorPressureLossVaried!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,9 +134,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Action Occurance Time (s)</t>
-  </si>
-  <si>
     <t>Sampled Scenario Time (s)</t>
   </si>
   <si>
@@ -231,9 +242,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>Administer succinycholine.</t>
-  </si>
-  <si>
     <t>Turn on Anesthesia Machine.</t>
   </si>
   <si>
@@ -243,12 +251,6 @@
     <t>Turn on expiratory valve leak with severity 0.5.</t>
   </si>
   <si>
-    <t>Place maske. Use oxygen bottle tank as oxygen source.</t>
-  </si>
-  <si>
-    <t>Place maske. Use wall oxygen as oxygen source.</t>
-  </si>
-  <si>
     <t>Turn on leak with severity 0.5.</t>
   </si>
   <si>
@@ -315,9 +317,6 @@
     <t>CO2 not scrubbed at all.</t>
   </si>
   <si>
-    <t>Turn on sodal lime failure with severity 1.0.</t>
-  </si>
-  <si>
     <t>Turn off soda lime failure.</t>
   </si>
   <si>
@@ -339,9 +338,6 @@
     <t>Total lung volume goes to approx. zero - RR is based on waveform, so still registers.</t>
   </si>
   <si>
-    <t>Leak not severe enough to noticably drop O2 Sat. Causes pressures below FRC, leading to higher TV.</t>
-  </si>
-  <si>
     <t>Turn on Anesthesia Machine with leak severity of 0.0.</t>
   </si>
   <si>
@@ -366,9 +362,6 @@
     <t>Turn on Anesthesia Machine with inspiratory valve leak severity of 0.0.</t>
   </si>
   <si>
-    <t>Leak not severe enough to noticably increase Aorta CO2.</t>
-  </si>
-  <si>
     <t>Reduced tidal volume (minor)@cite Roth2000Anesthesia</t>
   </si>
   <si>
@@ -399,9 +392,6 @@
     <t xml:space="preserve">Connect Anesthesia Machine. </t>
   </si>
   <si>
-    <t>Adminster drug via vaporizer. Turn on vaporizer failure of severity 1.0.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Place mask. </t>
   </si>
   <si>
@@ -489,9 +479,6 @@
     <t xml:space="preserve">Begins to decrease slowly return of functionality </t>
   </si>
   <si>
-    <t xml:space="preserve">Return to patient normal volume with unobstruction </t>
-  </si>
-  <si>
     <t xml:space="preserve">No significant change </t>
   </si>
   <si>
@@ -505,12 +492,39 @@
   </si>
   <si>
     <t xml:space="preserve">Increase at faster rate </t>
+  </si>
+  <si>
+    <t>Leak not severe enough to noticeably drop O2 Sat. Causes pressures below FRC, leading to higher TV.</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time (s)</t>
+  </si>
+  <si>
+    <t>Administer succinylcholine.</t>
+  </si>
+  <si>
+    <t>Administer drug via vaporizer. Turn on vaporizer failure of severity 1.0.</t>
+  </si>
+  <si>
+    <t>Turn on soda lime failure with severity 1.0.</t>
+  </si>
+  <si>
+    <t>Place mask. Use wall oxygen as oxygen source.</t>
+  </si>
+  <si>
+    <t>Place mask. Use oxygen bottle tank as oxygen source.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to patient normal volume with obstruction </t>
+  </si>
+  <si>
+    <t>Leak not severe enough to noticeably increase Aorta CO2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1239,6 +1253,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1286,7 +1303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,9 +1336,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1354,6 +1388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1529,14 +1580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,528 +1608,528 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F3" s="37">
         <v>30</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H3" s="38">
         <v>0</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J3" s="39">
         <v>0</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F4" s="37">
         <v>27</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H4" s="38">
         <v>3</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J4" s="39">
         <v>2</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F5" s="37">
         <v>30</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H5" s="38">
         <v>0</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J5" s="39">
         <v>0</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F6" s="37">
         <v>28</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H6" s="38">
         <v>0</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F7" s="37">
         <v>28</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H7" s="38">
         <v>0</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J7" s="39">
         <v>2</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F8" s="37">
         <v>30</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H8" s="38">
         <v>0</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J8" s="39">
         <v>0</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F9" s="37">
         <v>30</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H9" s="38">
         <v>0</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J9" s="39">
         <v>0</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F10" s="37">
         <v>25</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H10" s="38">
         <v>0</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J10" s="39">
         <v>0</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F11" s="37">
         <v>28</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H11" s="38">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J11" s="39">
         <v>1</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F12" s="37">
         <v>12</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H12" s="38">
         <v>0</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J12" s="39">
         <v>0</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F13" s="37">
         <v>30</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H13" s="38">
         <v>0</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J13" s="39">
         <v>0</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F14" s="37">
         <v>30</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H14" s="38">
         <v>0</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J14" s="39">
         <v>0</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F15" s="37">
         <f>SUM(F3:F14)</f>
         <v>328</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H15" s="38">
         <f>SUM(H3:H14)</f>
         <v>4</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J15" s="39">
         <f>SUM(J3:J14)</f>
         <v>7</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,14 +2160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,280 +2192,280 @@
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>120</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>120</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>300</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>300</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>480</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>480</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>660</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2428,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,466 +2515,466 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>270</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>270</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>360</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>360</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>450</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="O7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="Q7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>450</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>540</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2937,14 +2988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,7 +3025,7 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="27"/>
       <c r="E1" s="27"/>
@@ -2983,470 +3034,470 @@
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="23">
         <v>30</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="23">
         <v>90</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="23">
         <v>90</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="23">
         <v>150</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="23">
         <v>150</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="23">
         <v>240</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="23">
         <v>240</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="23">
         <v>330</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="23">
         <v>330</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="23">
         <v>420</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F9" s="23">
         <v>420</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H9" s="23">
         <v>510</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="M9" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N9" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>148</v>
-      </c>
       <c r="S9" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3460,14 +3511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,468 +3547,468 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3971,14 +4022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,470 +4058,470 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="Q6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4484,14 +4535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,466 +4571,466 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="R5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="R7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4993,14 +5044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,468 +5080,468 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="P5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5504,14 +5555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,467 +5591,467 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>60</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>60</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>210</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>210</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>246</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>246</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>270</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>270</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>390</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6014,14 +6065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,409 +6101,409 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>210</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>210</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>270</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q5" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>270</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>390</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>390</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>570</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6466,14 +6517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6502,470 +6553,470 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="R5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6">
         <v>810</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
